--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T16:07:40+00:00</t>
+    <t>2021-12-02T15:58:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:58:59+00:00</t>
+    <t>2021-12-02T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T16:06:37+00:00</t>
+    <t>2021-12-03T06:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-03T06:55:45+00:00</t>
+    <t>2021-12-15T15:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-16-narrative/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:08:55+00:00</t>
+    <t>2021-12-16T15:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
